--- a/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 08.12.20.xlsx
+++ b/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 08.12.20.xlsx
@@ -1454,20 +1454,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1487,6 +1481,21 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1516,21 +1525,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1539,37 +1539,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1945,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1997,162 +1966,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30.75">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="141"/>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="141"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="150"/>
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="150"/>
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="150"/>
+      <c r="AN1" s="150"/>
+      <c r="AO1" s="150"/>
+      <c r="AP1" s="150"/>
+      <c r="AQ1" s="150"/>
+      <c r="AR1" s="150"/>
+      <c r="AS1" s="150"/>
+      <c r="AT1" s="150"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="151"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="151"/>
+      <c r="AO2" s="151"/>
+      <c r="AP2" s="151"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="151"/>
+      <c r="AS2" s="151"/>
+      <c r="AT2" s="151"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="145"/>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="145"/>
-      <c r="AN3" s="145"/>
-      <c r="AO3" s="145"/>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="145"/>
-      <c r="AT3" s="145"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="154"/>
+      <c r="AK3" s="154"/>
+      <c r="AL3" s="154"/>
+      <c r="AM3" s="154"/>
+      <c r="AN3" s="154"/>
+      <c r="AO3" s="154"/>
+      <c r="AP3" s="154"/>
+      <c r="AQ3" s="154"/>
+      <c r="AR3" s="154"/>
+      <c r="AS3" s="154"/>
+      <c r="AT3" s="154"/>
     </row>
     <row r="4" spans="1:56" ht="15">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="99">
         <v>0</v>
       </c>
@@ -2177,10 +2146,10 @@
       <c r="L4" s="100">
         <v>300</v>
       </c>
-      <c r="M4" s="146">
+      <c r="M4" s="144">
         <v>2100</v>
       </c>
-      <c r="N4" s="146"/>
+      <c r="N4" s="144"/>
       <c r="O4" s="100">
         <v>1910</v>
       </c>
@@ -2203,24 +2172,24 @@
       <c r="Z4" s="99"/>
       <c r="AA4" s="99"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="147"/>
-      <c r="AD4" s="147"/>
-      <c r="AE4" s="147"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="147"/>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147"/>
-      <c r="AJ4" s="147"/>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
-      <c r="AO4" s="147"/>
-      <c r="AP4" s="147"/>
-      <c r="AQ4" s="147"/>
-      <c r="AR4" s="147"/>
-      <c r="AS4" s="147"/>
-      <c r="AT4" s="147"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="145"/>
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="145"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="145"/>
+      <c r="AO4" s="145"/>
+      <c r="AP4" s="145"/>
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="145"/>
+      <c r="AS4" s="145"/>
+      <c r="AT4" s="145"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
@@ -2232,12 +2201,12 @@
       <c r="BD4" s="6"/>
     </row>
     <row r="5" spans="1:56" ht="15">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="99"/>
       <c r="F5" s="99"/>
       <c r="G5" s="99"/>
@@ -2270,24 +2239,24 @@
       <c r="Z5" s="99"/>
       <c r="AA5" s="99"/>
       <c r="AB5" s="99"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="147"/>
-      <c r="AM5" s="147"/>
-      <c r="AN5" s="147"/>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="147"/>
-      <c r="AT5" s="147"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="145"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -2759,7 +2728,7 @@
         <v>44.53</v>
       </c>
       <c r="AU9" s="6"/>
-      <c r="AV9" s="163"/>
+      <c r="AV9" s="142"/>
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
       <c r="AY9" s="5"/>
@@ -2862,7 +2831,7 @@
         <v>15.753</v>
       </c>
       <c r="AU10" s="6"/>
-      <c r="AV10" s="163"/>
+      <c r="AV10" s="142"/>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
@@ -3082,7 +3051,7 @@
         <v>69.765999999999991</v>
       </c>
       <c r="AU12" s="6"/>
-      <c r="AV12" s="163"/>
+      <c r="AV12" s="142"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
@@ -3191,7 +3160,7 @@
         <v>3.9424999999999955</v>
       </c>
       <c r="AU13" s="6"/>
-      <c r="AV13" s="163"/>
+      <c r="AV13" s="142"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
@@ -3296,7 +3265,7 @@
         <v>-44.644999999999996</v>
       </c>
       <c r="AU14" s="6"/>
-      <c r="AV14" s="163"/>
+      <c r="AV14" s="142"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
@@ -3399,9 +3368,9 @@
         <v>-2.8410000000000082</v>
       </c>
       <c r="AU15" s="6"/>
-      <c r="AV15" s="163"/>
-      <c r="AW15" s="162"/>
-      <c r="AX15" s="162"/>
+      <c r="AV15" s="142"/>
+      <c r="AW15" s="141"/>
+      <c r="AX15" s="141"/>
       <c r="AY15" s="5"/>
       <c r="AZ15" s="5"/>
       <c r="BA15" s="6"/>
@@ -3502,7 +3471,7 @@
         <v>-40.617000000000004</v>
       </c>
       <c r="AU16" s="6"/>
-      <c r="AV16" s="163"/>
+      <c r="AV16" s="142"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
@@ -3611,7 +3580,7 @@
         <v>92.986999999999966</v>
       </c>
       <c r="AU17" s="6"/>
-      <c r="AV17" s="163"/>
+      <c r="AV17" s="142"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
@@ -3632,7 +3601,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="46">
-        <v>6602</v>
+        <v>6788</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="46"/>
@@ -3660,19 +3629,19 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="56">
         <f t="shared" si="6"/>
-        <v>6602</v>
+        <v>6788</v>
       </c>
       <c r="AD18" s="7">
         <f>D18*1</f>
-        <v>6602</v>
+        <v>6788</v>
       </c>
       <c r="AE18" s="19">
         <f>D18*2.75%</f>
-        <v>181.55500000000001</v>
+        <v>186.67</v>
       </c>
       <c r="AF18" s="19">
         <f>AD18*0.95%</f>
-        <v>62.719000000000001</v>
+        <v>64.486000000000004</v>
       </c>
       <c r="AG18" s="9">
         <f t="shared" si="7"/>
@@ -3695,7 +3664,7 @@
       </c>
       <c r="AO18" s="120">
         <f t="shared" si="9"/>
-        <v>181.55500000000001</v>
+        <v>186.67</v>
       </c>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="60">
@@ -3703,18 +3672,18 @@
       </c>
       <c r="AR18" s="21">
         <f>AC18-AE18-AG18-AJ18-AK18-AL18-AM18-AN18-AP18-AQ18</f>
-        <v>6320.4449999999997</v>
+        <v>6501.33</v>
       </c>
       <c r="AS18" s="53">
         <f>AF18+AH18+AI18</f>
-        <v>62.719000000000001</v>
+        <v>64.486000000000004</v>
       </c>
       <c r="AT18" s="53">
         <f>AS18-AQ18-AN18</f>
-        <v>-37.280999999999999</v>
+        <v>-35.513999999999996</v>
       </c>
       <c r="AU18" s="6"/>
-      <c r="AV18" s="163"/>
+      <c r="AV18" s="142"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
@@ -4645,14 +4614,14 @@
       <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="1:56" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
       <c r="D29" s="122">
         <f t="shared" ref="D29:AT29" si="14">SUM(D7:D28)</f>
-        <v>177863</v>
+        <v>178049</v>
       </c>
       <c r="E29" s="122">
         <f t="shared" si="14"/>
@@ -4752,19 +4721,19 @@
       </c>
       <c r="AC29" s="123">
         <f t="shared" si="14"/>
-        <v>202443</v>
+        <v>202629</v>
       </c>
       <c r="AD29" s="123">
         <f t="shared" si="14"/>
-        <v>177863</v>
+        <v>178049</v>
       </c>
       <c r="AE29" s="123">
         <f t="shared" si="14"/>
-        <v>4891.232500000001</v>
+        <v>4896.3475000000008</v>
       </c>
       <c r="AF29" s="123">
         <f t="shared" si="14"/>
-        <v>1689.6984999999997</v>
+        <v>1691.4654999999998</v>
       </c>
       <c r="AG29" s="123">
         <f t="shared" si="14"/>
@@ -4800,7 +4769,7 @@
       </c>
       <c r="AO29" s="124">
         <f>SUM(AO7:AO28)</f>
-        <v>4947.3325000000004</v>
+        <v>4952.4475000000002</v>
       </c>
       <c r="AP29" s="123">
         <f t="shared" si="14"/>
@@ -4811,33 +4780,33 @@
         <v>1644</v>
       </c>
       <c r="AR29" s="126">
-        <f t="shared" si="14"/>
-        <v>195230.78749999998</v>
+        <f>SUM(AR7:AR28)</f>
+        <v>195411.67249999996</v>
       </c>
       <c r="AS29" s="126">
         <f t="shared" si="14"/>
-        <v>1923.2085000000002</v>
+        <v>1924.9755000000002</v>
       </c>
       <c r="AT29" s="126">
         <f t="shared" si="14"/>
-        <v>279.20849999999996</v>
+        <v>280.97549999999995</v>
       </c>
       <c r="AU29" s="127"/>
       <c r="AV29" s="127"/>
-      <c r="AW29" s="164"/>
-      <c r="AX29" s="164"/>
-      <c r="AY29" s="164"/>
-      <c r="AZ29" s="164"/>
-      <c r="BA29" s="164"/>
-      <c r="BB29" s="164"/>
-      <c r="BC29" s="164"/>
-      <c r="BD29" s="164"/>
+      <c r="AW29" s="143"/>
+      <c r="AX29" s="143"/>
+      <c r="AY29" s="143"/>
+      <c r="AZ29" s="143"/>
+      <c r="BA29" s="143"/>
+      <c r="BB29" s="143"/>
+      <c r="BC29" s="143"/>
+      <c r="BD29" s="143"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="151"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
       <c r="E30" s="35">
@@ -4967,7 +4936,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="13"/>
       <c r="M32" s="134">
-        <v>195220</v>
+        <v>195410</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -5004,7 +4973,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="AR33" s="66">
-        <v>6320</v>
+        <v>6501</v>
       </c>
       <c r="AS33" s="20" t="s">
         <v>45</v>
@@ -5026,7 +4995,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="135">
         <f>M32+M33</f>
-        <v>202653</v>
+        <v>202843</v>
       </c>
       <c r="O34" s="65"/>
       <c r="P34" s="6"/>
@@ -5055,7 +5024,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="13"/>
       <c r="M35" s="3">
-        <v>34802</v>
+        <v>34983</v>
       </c>
       <c r="O35" s="15" t="s">
         <v>77</v>
@@ -5084,7 +5053,7 @@
       <c r="J36" s="15"/>
       <c r="M36" s="135">
         <f>M34-M35</f>
-        <v>167851</v>
+        <v>167860</v>
       </c>
       <c r="O36" s="24"/>
       <c r="AR36" s="10"/>
@@ -5119,7 +5088,7 @@
       <c r="G38" s="6"/>
       <c r="AR38" s="78">
         <f>SUM(AR32:AR37)</f>
-        <v>34802</v>
+        <v>34983</v>
       </c>
       <c r="AS38" s="79" t="s">
         <v>72</v>
@@ -5137,7 +5106,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="M39" s="4">
-        <v>35653</v>
+        <v>35843</v>
       </c>
     </row>
     <row r="40" spans="1:47">
@@ -5877,11 +5846,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="AC5:AT5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:AT1"/>
     <mergeCell ref="A2:AT2"/>
     <mergeCell ref="A3:B3"/>
@@ -5890,17 +5854,22 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="AC4:AT4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="AC5:AT5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$AQ$7:$AQ$18&lt;100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5932,92 +5901,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
     </row>
     <row r="4" spans="1:15" s="15" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
     </row>
     <row r="5" spans="1:15" s="15" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160" t="s">
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="64"/>
@@ -6505,11 +6474,11 @@
       <c r="N27" s="91"/>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A28" s="152" t="s">
+      <c r="A28" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
       <c r="D28" s="74">
         <f t="shared" ref="D28:J28" si="0">SUM(D7:D27)</f>
         <v>0</v>
